--- a/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/リクエスト一覧_A1_プロジェクト管理システム_バッチ.xlsx
+++ b/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/リクエスト一覧_A1_プロジェクト管理システム_バッチ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93138AF-0DEF-4302-A2C4-28301B2F09DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32499D6D-AA5A-4DDC-8189-569127C5CB57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="-120" windowWidth="27885" windowHeight="16440" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="28" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="1" sheetId="31" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AI$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AI$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$36</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
   <si>
     <t>システム名</t>
   </si>
@@ -133,16 +133,6 @@
       <t>イチラン</t>
     </rPh>
     <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>第１．０版</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>成果物名</t>
@@ -399,6 +389,108 @@
     <rPh sb="14" eb="16">
       <t>ツイカ</t>
     </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>A107</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>業務日付更新</t>
+    <rPh sb="0" eb="6">
+      <t>ギョウムヒヅケコウシン</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>BA1070101</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>業務日付更新</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>指定された区分の業務日付を実行時のシステム日付に更新する。</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>1.2版</t>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>業務日付更新バッチを追加</t>
+    <rPh sb="0" eb="6">
+      <t>ギョウムヒヅケコウシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>第１．２版</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BA1060301</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>ユーザ別従事プロジェクト画面にて作成要求されたプロジェクトの一覧をCSVファイルで出力する。</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>ユーザ別従事プロジェクト抽出バッチを追加</t>
+    <rPh sb="3" eb="4">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジュウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>ユーザ別従事プロジェクト抽出</t>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -1272,7 +1364,7 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1457,6 +1549,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1608,6 +1709,39 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1616,41 +1750,29 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1660,9 +1782,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1681,13 +1800,7 @@
     <xf numFmtId="0" fontId="38" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1763,12 +1876,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2653,7 +2760,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="J23" s="14" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2667,7 +2774,7 @@
       <c r="H25" s="5"/>
       <c r="I25" s="58">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v>44691</v>
+        <v>44883</v>
       </c>
       <c r="J25" s="58"/>
       <c r="K25" s="58"/>
@@ -3269,56 +3376,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="98" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="104" t="s">
+      <c r="A1" s="98" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="107" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="116" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
+      <c r="W1" s="117"/>
+      <c r="X1" s="117"/>
+      <c r="Y1" s="117"/>
+      <c r="Z1" s="118"/>
+      <c r="AA1" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="113" t="s">
-        <v>27</v>
-      </c>
-      <c r="T1" s="114"/>
-      <c r="U1" s="114"/>
-      <c r="V1" s="114"/>
-      <c r="W1" s="114"/>
-      <c r="X1" s="114"/>
-      <c r="Y1" s="114"/>
-      <c r="Z1" s="115"/>
-      <c r="AA1" s="95" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB1" s="97"/>
-      <c r="AC1" s="122" t="str">
+      <c r="AB1" s="100"/>
+      <c r="AC1" s="125" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="123"/>
-      <c r="AE1" s="123"/>
-      <c r="AF1" s="124"/>
-      <c r="AG1" s="88">
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="91">
         <v>44805</v>
       </c>
-      <c r="AH1" s="89"/>
-      <c r="AI1" s="90"/>
+      <c r="AH1" s="92"/>
+      <c r="AI1" s="93"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
@@ -3326,53 +3433,53 @@
       <c r="AN1" s="10"/>
     </row>
     <row r="2" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="98" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="116"/>
-      <c r="T2" s="117"/>
-      <c r="U2" s="117"/>
-      <c r="V2" s="117"/>
-      <c r="W2" s="117"/>
-      <c r="X2" s="117"/>
-      <c r="Y2" s="117"/>
-      <c r="Z2" s="118"/>
-      <c r="AA2" s="95" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB2" s="97"/>
-      <c r="AC2" s="101" t="str">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="101" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="120"/>
+      <c r="V2" s="120"/>
+      <c r="W2" s="120"/>
+      <c r="X2" s="120"/>
+      <c r="Y2" s="120"/>
+      <c r="Z2" s="121"/>
+      <c r="AA2" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="104" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="102"/>
-      <c r="AE2" s="102"/>
-      <c r="AF2" s="103"/>
-      <c r="AG2" s="88">
+      <c r="AD2" s="105"/>
+      <c r="AE2" s="105"/>
+      <c r="AF2" s="106"/>
+      <c r="AG2" s="91">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v>44691</v>
-      </c>
-      <c r="AH2" s="89"/>
-      <c r="AI2" s="90"/>
+        <v>44883</v>
+      </c>
+      <c r="AH2" s="92"/>
+      <c r="AI2" s="93"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
@@ -3380,45 +3487,45 @@
       <c r="AN2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="98" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="112"/>
-      <c r="S3" s="119"/>
-      <c r="T3" s="120"/>
-      <c r="U3" s="120"/>
-      <c r="V3" s="120"/>
-      <c r="W3" s="120"/>
-      <c r="X3" s="120"/>
-      <c r="Y3" s="120"/>
-      <c r="Z3" s="121"/>
-      <c r="AA3" s="95"/>
-      <c r="AB3" s="97"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="101" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="123"/>
+      <c r="U3" s="123"/>
+      <c r="V3" s="123"/>
+      <c r="W3" s="123"/>
+      <c r="X3" s="123"/>
+      <c r="Y3" s="123"/>
+      <c r="Z3" s="124"/>
+      <c r="AA3" s="98"/>
+      <c r="AB3" s="100"/>
       <c r="AC3" s="125"/>
       <c r="AD3" s="126"/>
       <c r="AE3" s="126"/>
       <c r="AF3" s="127"/>
-      <c r="AG3" s="88"/>
-      <c r="AH3" s="89"/>
-      <c r="AI3" s="90"/>
+      <c r="AG3" s="91"/>
+      <c r="AH3" s="92"/>
+      <c r="AI3" s="93"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -3453,112 +3560,112 @@
     </row>
     <row r="7" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="91" t="s">
+      <c r="C7" s="95"/>
+      <c r="D7" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="93"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="91" t="s">
+      <c r="E7" s="96"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="93"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="94" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="91" t="s">
+      <c r="H7" s="96"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="97" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="96"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="96"/>
+      <c r="O7" s="96"/>
+      <c r="P7" s="95"/>
+      <c r="Q7" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="R7" s="93"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="93"/>
-      <c r="U7" s="93"/>
-      <c r="V7" s="93"/>
-      <c r="W7" s="93"/>
-      <c r="X7" s="93"/>
-      <c r="Y7" s="93"/>
-      <c r="Z7" s="93"/>
-      <c r="AA7" s="93"/>
-      <c r="AB7" s="93"/>
-      <c r="AC7" s="93"/>
-      <c r="AD7" s="93"/>
-      <c r="AE7" s="92"/>
-      <c r="AF7" s="91" t="s">
+      <c r="R7" s="96"/>
+      <c r="S7" s="96"/>
+      <c r="T7" s="96"/>
+      <c r="U7" s="96"/>
+      <c r="V7" s="96"/>
+      <c r="W7" s="96"/>
+      <c r="X7" s="96"/>
+      <c r="Y7" s="96"/>
+      <c r="Z7" s="96"/>
+      <c r="AA7" s="96"/>
+      <c r="AB7" s="96"/>
+      <c r="AC7" s="96"/>
+      <c r="AD7" s="96"/>
+      <c r="AE7" s="95"/>
+      <c r="AF7" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="AG7" s="93"/>
-      <c r="AH7" s="93"/>
-      <c r="AI7" s="92"/>
+      <c r="AG7" s="96"/>
+      <c r="AH7" s="96"/>
+      <c r="AI7" s="95"/>
     </row>
     <row r="8" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="56">
         <v>1</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="76"/>
+      <c r="D8" s="77">
+        <v>43634</v>
+      </c>
+      <c r="E8" s="78"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="74">
-        <v>43634</v>
-      </c>
-      <c r="E8" s="75"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="77" t="s">
+      <c r="H8" s="81"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="78"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="80" t="s">
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="81"/>
-      <c r="P8" s="82"/>
-      <c r="Q8" s="83" t="s">
+      <c r="R8" s="87"/>
+      <c r="S8" s="87"/>
+      <c r="T8" s="87"/>
+      <c r="U8" s="87"/>
+      <c r="V8" s="87"/>
+      <c r="W8" s="87"/>
+      <c r="X8" s="87"/>
+      <c r="Y8" s="87"/>
+      <c r="Z8" s="87"/>
+      <c r="AA8" s="87"/>
+      <c r="AB8" s="87"/>
+      <c r="AC8" s="87"/>
+      <c r="AD8" s="87"/>
+      <c r="AE8" s="88"/>
+      <c r="AF8" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="R8" s="84"/>
-      <c r="S8" s="84"/>
-      <c r="T8" s="84"/>
-      <c r="U8" s="84"/>
-      <c r="V8" s="84"/>
-      <c r="W8" s="84"/>
-      <c r="X8" s="84"/>
-      <c r="Y8" s="84"/>
-      <c r="Z8" s="84"/>
-      <c r="AA8" s="84"/>
-      <c r="AB8" s="84"/>
-      <c r="AC8" s="84"/>
-      <c r="AD8" s="84"/>
-      <c r="AE8" s="85"/>
-      <c r="AF8" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG8" s="87"/>
-      <c r="AH8" s="87"/>
-      <c r="AI8" s="73"/>
+      <c r="AG8" s="90"/>
+      <c r="AH8" s="90"/>
+      <c r="AI8" s="76"/>
     </row>
     <row r="9" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="57">
         <v>2</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="60"/>
       <c r="D9" s="61">
@@ -3571,7 +3678,7 @@
       </c>
       <c r="H9" s="64"/>
       <c r="I9" s="60"/>
-      <c r="J9" s="176" t="s">
+      <c r="J9" s="73" t="s">
         <v>14</v>
       </c>
       <c r="K9" s="66"/>
@@ -3580,8 +3687,8 @@
       <c r="N9" s="66"/>
       <c r="O9" s="66"/>
       <c r="P9" s="67"/>
-      <c r="Q9" s="177" t="s">
-        <v>59</v>
+      <c r="Q9" s="74" t="s">
+        <v>58</v>
       </c>
       <c r="R9" s="69"/>
       <c r="S9" s="69"/>
@@ -3598,30 +3705,42 @@
       <c r="AD9" s="69"/>
       <c r="AE9" s="70"/>
       <c r="AF9" s="59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AG9" s="64"/>
       <c r="AH9" s="64"/>
       <c r="AI9" s="60"/>
     </row>
     <row r="10" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="48"/>
-      <c r="B10" s="59"/>
+      <c r="A10" s="57">
+        <v>3</v>
+      </c>
+      <c r="B10" s="72" t="s">
+        <v>64</v>
+      </c>
       <c r="C10" s="60"/>
-      <c r="D10" s="61"/>
+      <c r="D10" s="61">
+        <v>44866</v>
+      </c>
       <c r="E10" s="62"/>
       <c r="F10" s="63"/>
-      <c r="G10" s="59"/>
+      <c r="G10" s="61" t="s">
+        <v>3</v>
+      </c>
       <c r="H10" s="64"/>
       <c r="I10" s="60"/>
-      <c r="J10" s="65"/>
+      <c r="J10" s="73" t="s">
+        <v>14</v>
+      </c>
       <c r="K10" s="66"/>
       <c r="L10" s="66"/>
       <c r="M10" s="66"/>
       <c r="N10" s="66"/>
       <c r="O10" s="66"/>
       <c r="P10" s="67"/>
-      <c r="Q10" s="68"/>
+      <c r="Q10" s="74" t="s">
+        <v>65</v>
+      </c>
       <c r="R10" s="69"/>
       <c r="S10" s="69"/>
       <c r="T10" s="69"/>
@@ -3636,29 +3755,43 @@
       <c r="AC10" s="69"/>
       <c r="AD10" s="69"/>
       <c r="AE10" s="70"/>
-      <c r="AF10" s="65"/>
-      <c r="AG10" s="66"/>
-      <c r="AH10" s="66"/>
-      <c r="AI10" s="67"/>
+      <c r="AF10" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG10" s="64"/>
+      <c r="AH10" s="64"/>
+      <c r="AI10" s="60"/>
     </row>
     <row r="11" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="48"/>
-      <c r="B11" s="59"/>
+      <c r="A11" s="57">
+        <v>4</v>
+      </c>
+      <c r="B11" s="72" t="s">
+        <v>64</v>
+      </c>
       <c r="C11" s="60"/>
-      <c r="D11" s="61"/>
+      <c r="D11" s="61">
+        <v>44883</v>
+      </c>
       <c r="E11" s="62"/>
       <c r="F11" s="63"/>
-      <c r="G11" s="59"/>
+      <c r="G11" s="61" t="s">
+        <v>3</v>
+      </c>
       <c r="H11" s="64"/>
       <c r="I11" s="60"/>
-      <c r="J11" s="65"/>
+      <c r="J11" s="73" t="s">
+        <v>14</v>
+      </c>
       <c r="K11" s="66"/>
       <c r="L11" s="66"/>
       <c r="M11" s="66"/>
       <c r="N11" s="66"/>
       <c r="O11" s="66"/>
       <c r="P11" s="67"/>
-      <c r="Q11" s="68"/>
+      <c r="Q11" s="74" t="s">
+        <v>69</v>
+      </c>
       <c r="R11" s="69"/>
       <c r="S11" s="69"/>
       <c r="T11" s="69"/>
@@ -3673,10 +3806,12 @@
       <c r="AC11" s="69"/>
       <c r="AD11" s="69"/>
       <c r="AE11" s="70"/>
-      <c r="AF11" s="65"/>
-      <c r="AG11" s="66"/>
-      <c r="AH11" s="66"/>
-      <c r="AI11" s="67"/>
+      <c r="AF11" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG11" s="64"/>
+      <c r="AH11" s="64"/>
+      <c r="AI11" s="60"/>
     </row>
     <row r="12" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="48"/>
@@ -4833,52 +4968,52 @@
   <sheetData>
     <row r="1" spans="1:38" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="128" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="97"/>
+        <v>25</v>
+      </c>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="100"/>
       <c r="E1" s="129" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="104" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="106"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="107" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="109"/>
       <c r="S1" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>リクエスト一覧</v>
       </c>
-      <c r="T1" s="114"/>
-      <c r="U1" s="114"/>
-      <c r="V1" s="114"/>
-      <c r="W1" s="114"/>
-      <c r="X1" s="114"/>
-      <c r="Y1" s="114"/>
-      <c r="Z1" s="115"/>
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
+      <c r="W1" s="117"/>
+      <c r="X1" s="117"/>
+      <c r="Y1" s="117"/>
+      <c r="Z1" s="118"/>
       <c r="AA1" s="131" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AB1" s="132"/>
-      <c r="AC1" s="122" t="str">
+      <c r="AC1" s="136" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="123"/>
-      <c r="AE1" s="123"/>
-      <c r="AF1" s="124"/>
+      <c r="AD1" s="137"/>
+      <c r="AE1" s="137"/>
+      <c r="AF1" s="138"/>
       <c r="AG1" s="133">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>44805</v>
@@ -4890,39 +5025,39 @@
       <c r="AL1" s="10"/>
     </row>
     <row r="2" spans="1:38" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="97"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="100"/>
       <c r="E2" s="129" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="116"/>
-      <c r="T2" s="117"/>
-      <c r="U2" s="117"/>
-      <c r="V2" s="117"/>
-      <c r="W2" s="117"/>
-      <c r="X2" s="117"/>
-      <c r="Y2" s="117"/>
-      <c r="Z2" s="118"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="120"/>
+      <c r="V2" s="120"/>
+      <c r="W2" s="120"/>
+      <c r="X2" s="120"/>
+      <c r="Y2" s="120"/>
+      <c r="Z2" s="121"/>
       <c r="AA2" s="131" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB2" s="132"/>
       <c r="AC2" s="125" t="str">
@@ -4934,7 +5069,7 @@
       <c r="AF2" s="127"/>
       <c r="AG2" s="133">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>44691</v>
+        <v>44883</v>
       </c>
       <c r="AH2" s="134"/>
       <c r="AI2" s="135"/>
@@ -4943,39 +5078,39 @@
       <c r="AL2" s="9"/>
     </row>
     <row r="3" spans="1:38" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="97"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="100"/>
       <c r="E3" s="129" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理</v>
       </c>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="112"/>
-      <c r="S3" s="119"/>
-      <c r="T3" s="120"/>
-      <c r="U3" s="120"/>
-      <c r="V3" s="120"/>
-      <c r="W3" s="120"/>
-      <c r="X3" s="120"/>
-      <c r="Y3" s="120"/>
-      <c r="Z3" s="121"/>
-      <c r="AA3" s="136"/>
-      <c r="AB3" s="137"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="123"/>
+      <c r="U3" s="123"/>
+      <c r="V3" s="123"/>
+      <c r="W3" s="123"/>
+      <c r="X3" s="123"/>
+      <c r="Y3" s="123"/>
+      <c r="Z3" s="124"/>
+      <c r="AA3" s="139"/>
+      <c r="AB3" s="140"/>
       <c r="AC3" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
@@ -5048,7 +5183,7 @@
       <c r="O5" s="16"/>
       <c r="P5" s="16"/>
       <c r="Q5" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R5" s="16"/>
       <c r="S5" s="16"/>
@@ -6297,7 +6432,7 @@
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI27"/>
+  <dimension ref="A1:AI29"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -6312,45 +6447,45 @@
   <sheetData>
     <row r="1" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="128" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="97"/>
+        <v>45</v>
+      </c>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="100"/>
       <c r="E1" s="129" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="158" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" s="159"/>
-      <c r="Q1" s="159"/>
-      <c r="R1" s="160"/>
-      <c r="S1" s="167" t="str">
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="165" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="166"/>
+      <c r="Q1" s="166"/>
+      <c r="R1" s="167"/>
+      <c r="S1" s="174" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>リクエスト一覧</v>
       </c>
-      <c r="T1" s="168"/>
-      <c r="U1" s="168"/>
-      <c r="V1" s="168"/>
-      <c r="W1" s="168"/>
-      <c r="X1" s="168"/>
-      <c r="Y1" s="168"/>
-      <c r="Z1" s="169"/>
-      <c r="AA1" s="95" t="s">
+      <c r="T1" s="175"/>
+      <c r="U1" s="175"/>
+      <c r="V1" s="175"/>
+      <c r="W1" s="175"/>
+      <c r="X1" s="175"/>
+      <c r="Y1" s="175"/>
+      <c r="Z1" s="176"/>
+      <c r="AA1" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="97"/>
+      <c r="AB1" s="100"/>
       <c r="AC1" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
@@ -6366,41 +6501,41 @@
       <c r="AI1" s="135"/>
     </row>
     <row r="2" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="97"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="100"/>
       <c r="E2" s="129" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="161"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="162"/>
-      <c r="R2" s="163"/>
-      <c r="S2" s="170"/>
-      <c r="T2" s="171"/>
-      <c r="U2" s="171"/>
-      <c r="V2" s="171"/>
-      <c r="W2" s="171"/>
-      <c r="X2" s="171"/>
-      <c r="Y2" s="171"/>
-      <c r="Z2" s="172"/>
-      <c r="AA2" s="95" t="s">
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="169"/>
+      <c r="Q2" s="169"/>
+      <c r="R2" s="170"/>
+      <c r="S2" s="177"/>
+      <c r="T2" s="178"/>
+      <c r="U2" s="178"/>
+      <c r="V2" s="178"/>
+      <c r="W2" s="178"/>
+      <c r="X2" s="178"/>
+      <c r="Y2" s="178"/>
+      <c r="Z2" s="179"/>
+      <c r="AA2" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="97"/>
+      <c r="AB2" s="100"/>
       <c r="AC2" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
@@ -6410,45 +6545,45 @@
       <c r="AF2" s="127"/>
       <c r="AG2" s="133">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>44691</v>
+        <v>44883</v>
       </c>
       <c r="AH2" s="134"/>
       <c r="AI2" s="135"/>
     </row>
     <row r="3" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="97"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="100"/>
       <c r="E3" s="129" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理</v>
       </c>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="164"/>
-      <c r="P3" s="165"/>
-      <c r="Q3" s="165"/>
-      <c r="R3" s="166"/>
-      <c r="S3" s="173"/>
-      <c r="T3" s="174"/>
-      <c r="U3" s="174"/>
-      <c r="V3" s="174"/>
-      <c r="W3" s="174"/>
-      <c r="X3" s="174"/>
-      <c r="Y3" s="174"/>
-      <c r="Z3" s="175"/>
-      <c r="AA3" s="95"/>
-      <c r="AB3" s="97"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="171"/>
+      <c r="P3" s="172"/>
+      <c r="Q3" s="172"/>
+      <c r="R3" s="173"/>
+      <c r="S3" s="180"/>
+      <c r="T3" s="181"/>
+      <c r="U3" s="181"/>
+      <c r="V3" s="181"/>
+      <c r="W3" s="181"/>
+      <c r="X3" s="181"/>
+      <c r="Y3" s="181"/>
+      <c r="Z3" s="182"/>
+      <c r="AA3" s="98"/>
+      <c r="AB3" s="100"/>
       <c r="AC3" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
@@ -6471,474 +6606,562 @@
     <row r="6" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C7" s="50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="49" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="47"/>
       <c r="F7" s="47"/>
-      <c r="G7" s="154" t="s">
+      <c r="G7" s="161" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="155"/>
-      <c r="I7" s="155"/>
-      <c r="J7" s="155"/>
-      <c r="K7" s="156"/>
-      <c r="L7" s="154" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" s="155"/>
-      <c r="N7" s="156"/>
-      <c r="O7" s="157" t="s">
+      <c r="H7" s="162"/>
+      <c r="I7" s="162"/>
+      <c r="J7" s="162"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="161" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="162"/>
+      <c r="N7" s="163"/>
+      <c r="O7" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="P7" s="155"/>
-      <c r="Q7" s="155"/>
-      <c r="R7" s="155"/>
-      <c r="S7" s="155"/>
-      <c r="T7" s="155"/>
-      <c r="U7" s="156"/>
-      <c r="V7" s="154" t="s">
+      <c r="P7" s="162"/>
+      <c r="Q7" s="162"/>
+      <c r="R7" s="162"/>
+      <c r="S7" s="162"/>
+      <c r="T7" s="162"/>
+      <c r="U7" s="163"/>
+      <c r="V7" s="161" t="s">
         <v>11</v>
       </c>
-      <c r="W7" s="155"/>
-      <c r="X7" s="155"/>
-      <c r="Y7" s="155"/>
-      <c r="Z7" s="155"/>
-      <c r="AA7" s="155"/>
-      <c r="AB7" s="155"/>
-      <c r="AC7" s="155"/>
-      <c r="AD7" s="155"/>
-      <c r="AE7" s="155"/>
-      <c r="AF7" s="155"/>
-      <c r="AG7" s="155"/>
-      <c r="AH7" s="156"/>
+      <c r="W7" s="162"/>
+      <c r="X7" s="162"/>
+      <c r="Y7" s="162"/>
+      <c r="Z7" s="162"/>
+      <c r="AA7" s="162"/>
+      <c r="AB7" s="162"/>
+      <c r="AC7" s="162"/>
+      <c r="AD7" s="162"/>
+      <c r="AE7" s="162"/>
+      <c r="AF7" s="162"/>
+      <c r="AG7" s="162"/>
+      <c r="AH7" s="163"/>
     </row>
     <row r="8" spans="1:35" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="51">
         <v>1</v>
       </c>
-      <c r="D8" s="151" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="152"/>
-      <c r="F8" s="153"/>
-      <c r="G8" s="151" t="s">
+      <c r="D8" s="158" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="159"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="158" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="159"/>
+      <c r="I8" s="159"/>
+      <c r="J8" s="159"/>
+      <c r="K8" s="160"/>
+      <c r="L8" s="144" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="152"/>
-      <c r="I8" s="152"/>
-      <c r="J8" s="152"/>
-      <c r="K8" s="153"/>
-      <c r="L8" s="141" t="s">
-        <v>55</v>
-      </c>
-      <c r="M8" s="141"/>
-      <c r="N8" s="141"/>
-      <c r="O8" s="141" t="s">
-        <v>45</v>
-      </c>
-      <c r="P8" s="141"/>
-      <c r="Q8" s="141"/>
-      <c r="R8" s="141"/>
-      <c r="S8" s="141"/>
-      <c r="T8" s="141"/>
-      <c r="U8" s="141"/>
-      <c r="V8" s="141" t="s">
+      <c r="M8" s="144"/>
+      <c r="N8" s="144"/>
+      <c r="O8" s="144" t="s">
         <v>44</v>
       </c>
-      <c r="W8" s="141"/>
-      <c r="X8" s="141"/>
-      <c r="Y8" s="141"/>
-      <c r="Z8" s="141"/>
-      <c r="AA8" s="141"/>
-      <c r="AB8" s="141"/>
-      <c r="AC8" s="141"/>
-      <c r="AD8" s="141"/>
-      <c r="AE8" s="141"/>
-      <c r="AF8" s="141"/>
-      <c r="AG8" s="141"/>
-      <c r="AH8" s="141"/>
+      <c r="P8" s="144"/>
+      <c r="Q8" s="144"/>
+      <c r="R8" s="144"/>
+      <c r="S8" s="144"/>
+      <c r="T8" s="144"/>
+      <c r="U8" s="144"/>
+      <c r="V8" s="144" t="s">
+        <v>43</v>
+      </c>
+      <c r="W8" s="144"/>
+      <c r="X8" s="144"/>
+      <c r="Y8" s="144"/>
+      <c r="Z8" s="144"/>
+      <c r="AA8" s="144"/>
+      <c r="AB8" s="144"/>
+      <c r="AC8" s="144"/>
+      <c r="AD8" s="144"/>
+      <c r="AE8" s="144"/>
+      <c r="AF8" s="144"/>
+      <c r="AG8" s="144"/>
+      <c r="AH8" s="144"/>
     </row>
     <row r="9" spans="1:35" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="51">
         <v>2</v>
       </c>
-      <c r="D9" s="138"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="138"/>
-      <c r="H9" s="139"/>
-      <c r="I9" s="139"/>
-      <c r="J9" s="139"/>
-      <c r="K9" s="140"/>
-      <c r="L9" s="141" t="s">
-        <v>48</v>
-      </c>
-      <c r="M9" s="141"/>
-      <c r="N9" s="141"/>
-      <c r="O9" s="141" t="s">
-        <v>50</v>
-      </c>
-      <c r="P9" s="141"/>
-      <c r="Q9" s="141"/>
-      <c r="R9" s="141"/>
-      <c r="S9" s="141"/>
-      <c r="T9" s="141"/>
-      <c r="U9" s="141"/>
-      <c r="V9" s="141" t="s">
-        <v>52</v>
-      </c>
-      <c r="W9" s="141"/>
-      <c r="X9" s="141"/>
-      <c r="Y9" s="141"/>
-      <c r="Z9" s="141"/>
-      <c r="AA9" s="141"/>
-      <c r="AB9" s="141"/>
-      <c r="AC9" s="141"/>
-      <c r="AD9" s="141"/>
-      <c r="AE9" s="141"/>
-      <c r="AF9" s="141"/>
-      <c r="AG9" s="141"/>
-      <c r="AH9" s="141"/>
+      <c r="D9" s="148"/>
+      <c r="E9" s="149"/>
+      <c r="F9" s="150"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="149"/>
+      <c r="I9" s="149"/>
+      <c r="J9" s="149"/>
+      <c r="K9" s="150"/>
+      <c r="L9" s="144" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="144"/>
+      <c r="N9" s="144"/>
+      <c r="O9" s="144" t="s">
+        <v>49</v>
+      </c>
+      <c r="P9" s="144"/>
+      <c r="Q9" s="144"/>
+      <c r="R9" s="144"/>
+      <c r="S9" s="144"/>
+      <c r="T9" s="144"/>
+      <c r="U9" s="144"/>
+      <c r="V9" s="144" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="144"/>
+      <c r="X9" s="144"/>
+      <c r="Y9" s="144"/>
+      <c r="Z9" s="144"/>
+      <c r="AA9" s="144"/>
+      <c r="AB9" s="144"/>
+      <c r="AC9" s="144"/>
+      <c r="AD9" s="144"/>
+      <c r="AE9" s="144"/>
+      <c r="AF9" s="144"/>
+      <c r="AG9" s="144"/>
+      <c r="AH9" s="144"/>
     </row>
     <row r="10" spans="1:35" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="51">
         <v>3</v>
       </c>
       <c r="D10" s="148"/>
-      <c r="E10" s="149"/>
+      <c r="E10" s="157"/>
       <c r="F10" s="150"/>
       <c r="G10" s="148"/>
-      <c r="H10" s="149"/>
-      <c r="I10" s="149"/>
-      <c r="J10" s="149"/>
+      <c r="H10" s="157"/>
+      <c r="I10" s="157"/>
+      <c r="J10" s="157"/>
       <c r="K10" s="150"/>
-      <c r="L10" s="141" t="s">
-        <v>49</v>
-      </c>
-      <c r="M10" s="141"/>
-      <c r="N10" s="141"/>
-      <c r="O10" s="141" t="s">
-        <v>51</v>
-      </c>
-      <c r="P10" s="141"/>
-      <c r="Q10" s="141"/>
-      <c r="R10" s="141"/>
-      <c r="S10" s="141"/>
-      <c r="T10" s="141"/>
-      <c r="U10" s="141"/>
-      <c r="V10" s="141" t="s">
-        <v>53</v>
-      </c>
-      <c r="W10" s="141"/>
-      <c r="X10" s="141"/>
-      <c r="Y10" s="141"/>
-      <c r="Z10" s="141"/>
-      <c r="AA10" s="141"/>
-      <c r="AB10" s="141"/>
-      <c r="AC10" s="141"/>
-      <c r="AD10" s="141"/>
-      <c r="AE10" s="141"/>
-      <c r="AF10" s="141"/>
-      <c r="AG10" s="141"/>
-      <c r="AH10" s="141"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="B12" s="52" t="s">
+      <c r="L10" s="144" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" s="144"/>
+      <c r="N10" s="144"/>
+      <c r="O10" s="144" t="s">
+        <v>50</v>
+      </c>
+      <c r="P10" s="144"/>
+      <c r="Q10" s="144"/>
+      <c r="R10" s="144"/>
+      <c r="S10" s="144"/>
+      <c r="T10" s="144"/>
+      <c r="U10" s="144"/>
+      <c r="V10" s="144" t="s">
+        <v>52</v>
+      </c>
+      <c r="W10" s="144"/>
+      <c r="X10" s="144"/>
+      <c r="Y10" s="144"/>
+      <c r="Z10" s="144"/>
+      <c r="AA10" s="144"/>
+      <c r="AB10" s="144"/>
+      <c r="AC10" s="144"/>
+      <c r="AD10" s="144"/>
+      <c r="AE10" s="144"/>
+      <c r="AF10" s="144"/>
+      <c r="AG10" s="144"/>
+      <c r="AH10" s="144"/>
+    </row>
+    <row r="11" spans="1:35" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="51">
+        <v>4</v>
+      </c>
+      <c r="D11" s="141"/>
+      <c r="E11" s="142"/>
+      <c r="F11" s="143"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="142"/>
+      <c r="I11" s="142"/>
+      <c r="J11" s="142"/>
+      <c r="K11" s="143"/>
+      <c r="L11" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11" s="144"/>
+      <c r="N11" s="144"/>
+      <c r="O11" s="144" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" s="144"/>
+      <c r="Q11" s="144"/>
+      <c r="R11" s="144"/>
+      <c r="S11" s="144"/>
+      <c r="T11" s="144"/>
+      <c r="U11" s="144"/>
+      <c r="V11" s="144" t="s">
+        <v>68</v>
+      </c>
+      <c r="W11" s="144"/>
+      <c r="X11" s="144"/>
+      <c r="Y11" s="144"/>
+      <c r="Z11" s="144"/>
+      <c r="AA11" s="144"/>
+      <c r="AB11" s="144"/>
+      <c r="AC11" s="144"/>
+      <c r="AD11" s="144"/>
+      <c r="AE11" s="144"/>
+      <c r="AF11" s="144"/>
+      <c r="AG11" s="144"/>
+      <c r="AH11" s="144"/>
+    </row>
+    <row r="12" spans="1:35" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C12" s="51">
+        <v>5</v>
+      </c>
+      <c r="D12" s="145" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="146"/>
+      <c r="F12" s="147"/>
+      <c r="G12" s="145" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="146"/>
+      <c r="I12" s="146"/>
+      <c r="J12" s="146"/>
+      <c r="K12" s="147"/>
+      <c r="L12" s="144" t="s">
+        <v>61</v>
+      </c>
+      <c r="M12" s="144"/>
+      <c r="N12" s="144"/>
+      <c r="O12" s="144" t="s">
+        <v>62</v>
+      </c>
+      <c r="P12" s="144"/>
+      <c r="Q12" s="144"/>
+      <c r="R12" s="144"/>
+      <c r="S12" s="144"/>
+      <c r="T12" s="144"/>
+      <c r="U12" s="144"/>
+      <c r="V12" s="144" t="s">
+        <v>63</v>
+      </c>
+      <c r="W12" s="144"/>
+      <c r="X12" s="144"/>
+      <c r="Y12" s="144"/>
+      <c r="Z12" s="144"/>
+      <c r="AA12" s="144"/>
+      <c r="AB12" s="144"/>
+      <c r="AC12" s="144"/>
+      <c r="AD12" s="144"/>
+      <c r="AE12" s="144"/>
+      <c r="AF12" s="144"/>
+      <c r="AG12" s="144"/>
+      <c r="AH12" s="144"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="B14" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
+      <c r="AE14"/>
+      <c r="AF14"/>
+      <c r="AG14"/>
+      <c r="AH14"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="B15" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
-      <c r="R12"/>
-      <c r="S12"/>
-      <c r="T12"/>
-      <c r="U12"/>
-      <c r="V12"/>
-      <c r="W12"/>
-      <c r="X12"/>
-      <c r="Y12"/>
-      <c r="Z12"/>
-      <c r="AA12"/>
-      <c r="AB12"/>
-      <c r="AC12"/>
-      <c r="AD12"/>
-      <c r="AE12"/>
-      <c r="AF12"/>
-      <c r="AG12"/>
-      <c r="AH12"/>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="B13" s="53" t="s">
+      <c r="C15" s="154" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="145" t="s">
+      <c r="D15" s="155"/>
+      <c r="E15" s="155"/>
+      <c r="F15" s="155"/>
+      <c r="G15" s="155"/>
+      <c r="H15" s="156"/>
+      <c r="I15" s="154" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="146"/>
-      <c r="E13" s="146"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="147"/>
-      <c r="I13" s="145" t="s">
-        <v>37</v>
-      </c>
-      <c r="J13" s="146"/>
-      <c r="K13" s="146"/>
-      <c r="L13" s="146"/>
-      <c r="M13" s="146"/>
-      <c r="N13" s="146"/>
-      <c r="O13" s="146"/>
-      <c r="P13" s="146"/>
-      <c r="Q13" s="146"/>
-      <c r="R13" s="146"/>
-      <c r="S13" s="146"/>
-      <c r="T13" s="146"/>
-      <c r="U13" s="146"/>
-      <c r="V13" s="146"/>
-      <c r="W13" s="146"/>
-      <c r="X13" s="146"/>
-      <c r="Y13" s="146"/>
-      <c r="Z13" s="146"/>
-      <c r="AA13" s="146"/>
-      <c r="AB13" s="146"/>
-      <c r="AC13" s="146"/>
-      <c r="AD13" s="146"/>
-      <c r="AE13" s="146"/>
-      <c r="AF13" s="146"/>
-      <c r="AG13" s="146"/>
-      <c r="AH13" s="147"/>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="B14" s="54">
-        <v>1</v>
-      </c>
-      <c r="C14" s="142" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="143"/>
-      <c r="E14" s="143"/>
-      <c r="F14" s="143"/>
-      <c r="G14" s="143"/>
-      <c r="H14" s="144"/>
-      <c r="I14" s="142" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" s="143"/>
-      <c r="K14" s="143"/>
-      <c r="L14" s="143"/>
-      <c r="M14" s="143"/>
-      <c r="N14" s="143"/>
-      <c r="O14" s="143"/>
-      <c r="P14" s="143"/>
-      <c r="Q14" s="143"/>
-      <c r="R14" s="143"/>
-      <c r="S14" s="143"/>
-      <c r="T14" s="143"/>
-      <c r="U14" s="143"/>
-      <c r="V14" s="143"/>
-      <c r="W14" s="143"/>
-      <c r="X14" s="143"/>
-      <c r="Y14" s="143"/>
-      <c r="Z14" s="143"/>
-      <c r="AA14" s="143"/>
-      <c r="AB14" s="143"/>
-      <c r="AC14" s="143"/>
-      <c r="AD14" s="143"/>
-      <c r="AE14" s="143"/>
-      <c r="AF14" s="143"/>
-      <c r="AG14" s="143"/>
-      <c r="AH14" s="144"/>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="B15" s="54">
-        <v>2</v>
-      </c>
-      <c r="C15" s="142" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="143"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="143"/>
-      <c r="H15" s="144"/>
-      <c r="I15" s="142" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15" s="143"/>
-      <c r="K15" s="143"/>
-      <c r="L15" s="143"/>
-      <c r="M15" s="143"/>
-      <c r="N15" s="143"/>
-      <c r="O15" s="143"/>
-      <c r="P15" s="143"/>
-      <c r="Q15" s="143"/>
-      <c r="R15" s="143"/>
-      <c r="S15" s="143"/>
-      <c r="T15" s="143"/>
-      <c r="U15" s="143"/>
-      <c r="V15" s="143"/>
-      <c r="W15" s="143"/>
-      <c r="X15" s="143"/>
-      <c r="Y15" s="143"/>
-      <c r="Z15" s="143"/>
-      <c r="AA15" s="143"/>
-      <c r="AB15" s="143"/>
-      <c r="AC15" s="143"/>
-      <c r="AD15" s="143"/>
-      <c r="AE15" s="143"/>
-      <c r="AF15" s="143"/>
-      <c r="AG15" s="143"/>
-      <c r="AH15" s="144"/>
+      <c r="J15" s="155"/>
+      <c r="K15" s="155"/>
+      <c r="L15" s="155"/>
+      <c r="M15" s="155"/>
+      <c r="N15" s="155"/>
+      <c r="O15" s="155"/>
+      <c r="P15" s="155"/>
+      <c r="Q15" s="155"/>
+      <c r="R15" s="155"/>
+      <c r="S15" s="155"/>
+      <c r="T15" s="155"/>
+      <c r="U15" s="155"/>
+      <c r="V15" s="155"/>
+      <c r="W15" s="155"/>
+      <c r="X15" s="155"/>
+      <c r="Y15" s="155"/>
+      <c r="Z15" s="155"/>
+      <c r="AA15" s="155"/>
+      <c r="AB15" s="155"/>
+      <c r="AC15" s="155"/>
+      <c r="AD15" s="155"/>
+      <c r="AE15" s="155"/>
+      <c r="AF15" s="155"/>
+      <c r="AG15" s="155"/>
+      <c r="AH15" s="156"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B16" s="54">
+        <v>1</v>
+      </c>
+      <c r="C16" s="151" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="152"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="152"/>
+      <c r="G16" s="152"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="151" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" s="152"/>
+      <c r="K16" s="152"/>
+      <c r="L16" s="152"/>
+      <c r="M16" s="152"/>
+      <c r="N16" s="152"/>
+      <c r="O16" s="152"/>
+      <c r="P16" s="152"/>
+      <c r="Q16" s="152"/>
+      <c r="R16" s="152"/>
+      <c r="S16" s="152"/>
+      <c r="T16" s="152"/>
+      <c r="U16" s="152"/>
+      <c r="V16" s="152"/>
+      <c r="W16" s="152"/>
+      <c r="X16" s="152"/>
+      <c r="Y16" s="152"/>
+      <c r="Z16" s="152"/>
+      <c r="AA16" s="152"/>
+      <c r="AB16" s="152"/>
+      <c r="AC16" s="152"/>
+      <c r="AD16" s="152"/>
+      <c r="AE16" s="152"/>
+      <c r="AF16" s="152"/>
+      <c r="AG16" s="152"/>
+      <c r="AH16" s="153"/>
+    </row>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="B17" s="54">
+        <v>2</v>
+      </c>
+      <c r="C17" s="151" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="152"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="153"/>
+      <c r="I17" s="151" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="152"/>
+      <c r="K17" s="152"/>
+      <c r="L17" s="152"/>
+      <c r="M17" s="152"/>
+      <c r="N17" s="152"/>
+      <c r="O17" s="152"/>
+      <c r="P17" s="152"/>
+      <c r="Q17" s="152"/>
+      <c r="R17" s="152"/>
+      <c r="S17" s="152"/>
+      <c r="T17" s="152"/>
+      <c r="U17" s="152"/>
+      <c r="V17" s="152"/>
+      <c r="W17" s="152"/>
+      <c r="X17" s="152"/>
+      <c r="Y17" s="152"/>
+      <c r="Z17" s="152"/>
+      <c r="AA17" s="152"/>
+      <c r="AB17" s="152"/>
+      <c r="AC17" s="152"/>
+      <c r="AD17" s="152"/>
+      <c r="AE17" s="152"/>
+      <c r="AF17" s="152"/>
+      <c r="AG17" s="152"/>
+      <c r="AH17" s="153"/>
+    </row>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="B18" s="54">
         <v>3</v>
       </c>
-      <c r="C16" s="142" t="s">
+      <c r="C18" s="151" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="153"/>
+      <c r="I18" s="151" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="143"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="142" t="s">
+      <c r="J18" s="152"/>
+      <c r="K18" s="152"/>
+      <c r="L18" s="152"/>
+      <c r="M18" s="152"/>
+      <c r="N18" s="152"/>
+      <c r="O18" s="152"/>
+      <c r="P18" s="152"/>
+      <c r="Q18" s="152"/>
+      <c r="R18" s="152"/>
+      <c r="S18" s="152"/>
+      <c r="T18" s="152"/>
+      <c r="U18" s="152"/>
+      <c r="V18" s="152"/>
+      <c r="W18" s="152"/>
+      <c r="X18" s="152"/>
+      <c r="Y18" s="152"/>
+      <c r="Z18" s="152"/>
+      <c r="AA18" s="152"/>
+      <c r="AB18" s="152"/>
+      <c r="AC18" s="152"/>
+      <c r="AD18" s="152"/>
+      <c r="AE18" s="152"/>
+      <c r="AF18" s="152"/>
+      <c r="AG18" s="152"/>
+      <c r="AH18" s="153"/>
+    </row>
+    <row r="19" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="B19" s="55">
+        <v>4</v>
+      </c>
+      <c r="C19" s="151" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="152"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="153"/>
+      <c r="I19" s="151" t="s">
         <v>41</v>
       </c>
-      <c r="J16" s="143"/>
-      <c r="K16" s="143"/>
-      <c r="L16" s="143"/>
-      <c r="M16" s="143"/>
-      <c r="N16" s="143"/>
-      <c r="O16" s="143"/>
-      <c r="P16" s="143"/>
-      <c r="Q16" s="143"/>
-      <c r="R16" s="143"/>
-      <c r="S16" s="143"/>
-      <c r="T16" s="143"/>
-      <c r="U16" s="143"/>
-      <c r="V16" s="143"/>
-      <c r="W16" s="143"/>
-      <c r="X16" s="143"/>
-      <c r="Y16" s="143"/>
-      <c r="Z16" s="143"/>
-      <c r="AA16" s="143"/>
-      <c r="AB16" s="143"/>
-      <c r="AC16" s="143"/>
-      <c r="AD16" s="143"/>
-      <c r="AE16" s="143"/>
-      <c r="AF16" s="143"/>
-      <c r="AG16" s="143"/>
-      <c r="AH16" s="144"/>
-    </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.15">
-      <c r="B17" s="55">
-        <v>4</v>
-      </c>
-      <c r="C17" s="142" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="143"/>
-      <c r="E17" s="143"/>
-      <c r="F17" s="143"/>
-      <c r="G17" s="143"/>
-      <c r="H17" s="144"/>
-      <c r="I17" s="142" t="s">
+      <c r="J19" s="152"/>
+      <c r="K19" s="152"/>
+      <c r="L19" s="152"/>
+      <c r="M19" s="152"/>
+      <c r="N19" s="152"/>
+      <c r="O19" s="152"/>
+      <c r="P19" s="152"/>
+      <c r="Q19" s="152"/>
+      <c r="R19" s="152"/>
+      <c r="S19" s="152"/>
+      <c r="T19" s="152"/>
+      <c r="U19" s="152"/>
+      <c r="V19" s="152"/>
+      <c r="W19" s="152"/>
+      <c r="X19" s="152"/>
+      <c r="Y19" s="152"/>
+      <c r="Z19" s="152"/>
+      <c r="AA19" s="152"/>
+      <c r="AB19" s="152"/>
+      <c r="AC19" s="152"/>
+      <c r="AD19" s="152"/>
+      <c r="AE19" s="152"/>
+      <c r="AF19" s="152"/>
+      <c r="AG19" s="152"/>
+      <c r="AH19" s="153"/>
+    </row>
+    <row r="20" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="B20" s="55">
+        <v>5</v>
+      </c>
+      <c r="C20" s="151" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="152"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="152"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="153"/>
+      <c r="I20" s="151" t="s">
         <v>42</v>
       </c>
-      <c r="J17" s="143"/>
-      <c r="K17" s="143"/>
-      <c r="L17" s="143"/>
-      <c r="M17" s="143"/>
-      <c r="N17" s="143"/>
-      <c r="O17" s="143"/>
-      <c r="P17" s="143"/>
-      <c r="Q17" s="143"/>
-      <c r="R17" s="143"/>
-      <c r="S17" s="143"/>
-      <c r="T17" s="143"/>
-      <c r="U17" s="143"/>
-      <c r="V17" s="143"/>
-      <c r="W17" s="143"/>
-      <c r="X17" s="143"/>
-      <c r="Y17" s="143"/>
-      <c r="Z17" s="143"/>
-      <c r="AA17" s="143"/>
-      <c r="AB17" s="143"/>
-      <c r="AC17" s="143"/>
-      <c r="AD17" s="143"/>
-      <c r="AE17" s="143"/>
-      <c r="AF17" s="143"/>
-      <c r="AG17" s="143"/>
-      <c r="AH17" s="144"/>
-    </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.15">
-      <c r="B18" s="55">
-        <v>5</v>
-      </c>
-      <c r="C18" s="142" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="143"/>
-      <c r="E18" s="143"/>
-      <c r="F18" s="143"/>
-      <c r="G18" s="143"/>
-      <c r="H18" s="144"/>
-      <c r="I18" s="142" t="s">
-        <v>43</v>
-      </c>
-      <c r="J18" s="143"/>
-      <c r="K18" s="143"/>
-      <c r="L18" s="143"/>
-      <c r="M18" s="143"/>
-      <c r="N18" s="143"/>
-      <c r="O18" s="143"/>
-      <c r="P18" s="143"/>
-      <c r="Q18" s="143"/>
-      <c r="R18" s="143"/>
-      <c r="S18" s="143"/>
-      <c r="T18" s="143"/>
-      <c r="U18" s="143"/>
-      <c r="V18" s="143"/>
-      <c r="W18" s="143"/>
-      <c r="X18" s="143"/>
-      <c r="Y18" s="143"/>
-      <c r="Z18" s="143"/>
-      <c r="AA18" s="143"/>
-      <c r="AB18" s="143"/>
-      <c r="AC18" s="143"/>
-      <c r="AD18" s="143"/>
-      <c r="AE18" s="143"/>
-      <c r="AF18" s="143"/>
-      <c r="AG18" s="143"/>
-      <c r="AH18" s="144"/>
-    </row>
-    <row r="21" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="22"/>
-    </row>
+      <c r="J20" s="152"/>
+      <c r="K20" s="152"/>
+      <c r="L20" s="152"/>
+      <c r="M20" s="152"/>
+      <c r="N20" s="152"/>
+      <c r="O20" s="152"/>
+      <c r="P20" s="152"/>
+      <c r="Q20" s="152"/>
+      <c r="R20" s="152"/>
+      <c r="S20" s="152"/>
+      <c r="T20" s="152"/>
+      <c r="U20" s="152"/>
+      <c r="V20" s="152"/>
+      <c r="W20" s="152"/>
+      <c r="X20" s="152"/>
+      <c r="Y20" s="152"/>
+      <c r="Z20" s="152"/>
+      <c r="AA20" s="152"/>
+      <c r="AB20" s="152"/>
+      <c r="AC20" s="152"/>
+      <c r="AD20" s="152"/>
+      <c r="AE20" s="152"/>
+      <c r="AF20" s="152"/>
+      <c r="AG20" s="152"/>
+      <c r="AH20" s="153"/>
+    </row>
+    <row r="23" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="24" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="22"/>
+    </row>
     <row r="26" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="27" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="58">
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
@@ -6970,30 +7193,38 @@
     <mergeCell ref="L10:N10"/>
     <mergeCell ref="O10:U10"/>
     <mergeCell ref="V10:AH10"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="I18:AH18"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="I13:AH13"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="I14:AH14"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="I20:AH20"/>
     <mergeCell ref="C15:H15"/>
     <mergeCell ref="I15:AH15"/>
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="I16:AH16"/>
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="I17:AH17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="I18:AH18"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="I19:AH19"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="G9:K9"/>
     <mergeCell ref="L9:N9"/>
     <mergeCell ref="O9:U9"/>
     <mergeCell ref="V9:AH9"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="O12:U12"/>
+    <mergeCell ref="V12:AH12"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="O11:U11"/>
+    <mergeCell ref="V11:AH11"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;C- &amp;P -</oddFooter>
-  </headerFooter>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>